--- a/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,62; 97,59</t>
+          <t>93,66; 97,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,07; 98,19</t>
+          <t>93,98; 98,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,17; 99,21</t>
+          <t>95,51; 99,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,66</t>
+          <t>95,53; 99,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,36; 98,94</t>
+          <t>96,22; 98,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,46; 98,91</t>
+          <t>96,41; 98,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,02; 98,15</t>
+          <t>93,53; 98,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,53; 98,93</t>
+          <t>95,4; 98,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,02; 98,22</t>
+          <t>95,97; 98,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,21; 98,32</t>
+          <t>96,03; 98,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95,55; 98,25</t>
+          <t>95,49; 98,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,44; 98,96</t>
+          <t>96,34; 98,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,48; 92,6</t>
+          <t>84,65; 92,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,86; 95,06</t>
+          <t>89,07; 95,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,45; 93,21</t>
+          <t>87,62; 93,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,32; 93,26</t>
+          <t>85,97; 92,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,99; 94,63</t>
+          <t>88,72; 94,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,53; 98,55</t>
+          <t>95,32; 98,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,24</t>
+          <t>92,24; 96,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,51; 93,24</t>
+          <t>88,22; 93,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,44; 92,99</t>
+          <t>88,15; 92,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,37; 96,57</t>
+          <t>93,3; 96,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,03; 94,36</t>
+          <t>91,08; 94,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 92,53</t>
+          <t>88,43; 92,55</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,46; 81,1</t>
+          <t>57,59; 80,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,27; 90,44</t>
+          <t>71,24; 90,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,82; 85,65</t>
+          <t>69,54; 85,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,18; 85,08</t>
+          <t>69,72; 84,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,09; 87,49</t>
+          <t>73,44; 88,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,65; 87,92</t>
+          <t>70,34; 87,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,36; 88,6</t>
+          <t>74,37; 88,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,57; 79,27</t>
+          <t>66,89; 79,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,63; 83,46</t>
+          <t>70,92; 82,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 86,59</t>
+          <t>73,85; 86,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75,55; 86,16</t>
+          <t>75,32; 85,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,82; 80,17</t>
+          <t>70,68; 80,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>87,93; 92,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,0; 95,04</t>
+          <t>90,99; 95,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,06; 93,02</t>
+          <t>89,19; 93,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,55; 92,05</t>
+          <t>86,8; 91,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,15; 95,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,56; 97,06</t>
+          <t>94,36; 96,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,29; 95,28</t>
+          <t>92,31; 95,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,87; 91,36</t>
+          <t>87,66; 91,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,2; 93,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,6; 95,82</t>
+          <t>93,71; 95,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,43; 93,86</t>
+          <t>91,43; 93,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,13; 91,13</t>
+          <t>88,14; 91,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,66; 97,75</t>
+          <t>93,55; 97,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,98; 98,36</t>
+          <t>94,2; 98,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,51; 99,22</t>
+          <t>95,29; 99,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,22; 98,96</t>
+          <t>96,35; 98,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,41; 98,86</t>
+          <t>96,42; 98,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,53; 98,02</t>
+          <t>94,3; 98,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,97; 98,27</t>
+          <t>95,88; 98,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,03; 98,34</t>
+          <t>96,15; 98,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95,49; 98,26</t>
+          <t>95,47; 98,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,65; 92,79</t>
+          <t>84,9; 92,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,07; 95,12</t>
+          <t>88,41; 94,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,62; 93,49</t>
+          <t>87,59; 93,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,72; 94,32</t>
+          <t>88,87; 94,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,32; 98,39</t>
+          <t>95,31; 98,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,24; 96,32</t>
+          <t>92,35; 96,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,15; 92,73</t>
+          <t>88,26; 92,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,3; 96,66</t>
+          <t>93,19; 96,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,08; 94,5</t>
+          <t>91,07; 94,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,59; 80,53</t>
+          <t>59,46; 81,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,24; 90,26</t>
+          <t>70,18; 89,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,54; 85,92</t>
+          <t>69,48; 85,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,44; 88,56</t>
+          <t>73,66; 88,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,34; 87,19</t>
+          <t>71,31; 87,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,37; 88,47</t>
+          <t>74,95; 88,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,92; 82,95</t>
+          <t>70,46; 82,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,85; 86,93</t>
+          <t>74,16; 86,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75,32; 85,73</t>
+          <t>75,54; 85,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,78</t>
+          <t>88,05; 92,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,99; 95,0</t>
+          <t>90,95; 95,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,19; 93,1</t>
+          <t>89,01; 93,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,15; 95,24</t>
+          <t>92,03; 95,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,36; 96,93</t>
+          <t>94,42; 97,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,31; 95,28</t>
+          <t>92,4; 95,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,2; 93,81</t>
+          <t>91,19; 93,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,71; 95,86</t>
+          <t>93,66; 95,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,43; 93,94</t>
+          <t>91,5; 93,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,55; 97,74</t>
+          <t>93,62; 97,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,2; 98,25</t>
+          <t>94,07; 98,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,29; 99,21</t>
+          <t>95,17; 99,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,53; 99,67</t>
+          <t>95,78; 99,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,35; 98,93</t>
+          <t>96,36; 98,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,42; 98,91</t>
+          <t>96,46; 98,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,3; 98,23</t>
+          <t>94,02; 98,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,4; 98,95</t>
+          <t>95,53; 98,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,88; 98,15</t>
+          <t>96,02; 98,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,15; 98,27</t>
+          <t>96,21; 98,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95,47; 98,22</t>
+          <t>95,55; 98,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,34; 98,9</t>
+          <t>96,44; 98,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,9; 92,66</t>
+          <t>84,48; 92,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,41; 94,99</t>
+          <t>88,86; 95,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,59; 93,47</t>
+          <t>87,45; 93,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,97; 92,93</t>
+          <t>86,32; 93,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,87; 94,38</t>
+          <t>88,99; 94,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,31; 98,55</t>
+          <t>95,53; 98,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,35; 96,17</t>
+          <t>92,32; 96,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,22; 93,21</t>
+          <t>88,51; 93,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,26; 92,76</t>
+          <t>88,44; 92,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,19; 96,51</t>
+          <t>93,37; 96,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,07; 94,36</t>
+          <t>91,03; 94,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 92,55</t>
+          <t>88,43; 92,53</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,46; 81,48</t>
+          <t>57,46; 81,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,18; 89,94</t>
+          <t>72,27; 90,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,48; 85,35</t>
+          <t>69,82; 85,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,72; 84,95</t>
+          <t>71,18; 85,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,66; 88,19</t>
+          <t>72,09; 87,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,31; 87,4</t>
+          <t>70,65; 87,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,95; 88,1</t>
+          <t>74,36; 88,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,89; 79,22</t>
+          <t>66,57; 79,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,46; 82,97</t>
+          <t>70,63; 83,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,16; 86,83</t>
+          <t>74,05; 86,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75,54; 85,81</t>
+          <t>75,55; 86,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,68; 80,03</t>
+          <t>70,82; 80,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,05; 92,54</t>
+          <t>87,93; 92,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,95; 95,06</t>
+          <t>91,0; 95,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,01; 93,1</t>
+          <t>89,06; 93,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,8; 91,86</t>
+          <t>86,55; 92,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,03; 95,2</t>
+          <t>92,06; 95,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,42; 97,03</t>
+          <t>94,56; 97,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,4; 95,28</t>
+          <t>92,29; 95,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,66; 91,39</t>
+          <t>87,87; 91,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,19; 93,84</t>
+          <t>91,35; 93,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,66; 95,76</t>
+          <t>93,6; 95,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,5; 93,88</t>
+          <t>91,43; 93,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,14; 91,18</t>
+          <t>88,13; 91,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>98,05%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,66</t>
+          <t>96,08; 99,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,53; 98,93</t>
+          <t>95,77; 98,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,44; 98,96</t>
+          <t>96,66; 99,03</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>91,35%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,32; 93,26</t>
+          <t>86,4; 93,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,51; 93,24</t>
+          <t>89,42; 94,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 92,53</t>
+          <t>89,11; 93,71</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78,66%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,24%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>75,57%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,18; 85,08</t>
+          <t>70,44; 85,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,57; 79,27</t>
+          <t>66,42; 79,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,82; 80,17</t>
+          <t>70,71; 80,07</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>90,04%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,55; 92,05</t>
+          <t>86,23; 91,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,87; 91,36</t>
+          <t>88,28; 92,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,13; 91,13</t>
+          <t>88,45; 91,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,62; 97,59</t>
+          <t>93,74; 97,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,07; 98,19</t>
+          <t>94,15; 98,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,17; 99,21</t>
+          <t>95,6; 99,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,08; 99,67</t>
+          <t>96,27; 99,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,36; 98,94</t>
+          <t>96,32; 98,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,46; 98,91</t>
+          <t>96,43; 99,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,02; 98,15</t>
+          <t>94,37; 98,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,77; 98,96</t>
+          <t>95,81; 98,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,02; 98,22</t>
+          <t>95,96; 98,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>96,21; 98,32</t>
+          <t>96,14; 98,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95,55; 98,25</t>
+          <t>95,47; 98,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,66; 99,03</t>
+          <t>96,59; 98,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,48; 92,6</t>
+          <t>84,53; 92,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,86; 95,06</t>
+          <t>88,23; 94,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,45; 93,21</t>
+          <t>87,9; 93,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,4; 93,27</t>
+          <t>86,22; 93,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,99; 94,63</t>
+          <t>88,81; 94,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,53; 98,55</t>
+          <t>95,08; 98,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,32; 96,24</t>
+          <t>92,13; 96,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,42; 94,9</t>
+          <t>89,09; 95,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,44; 92,99</t>
+          <t>88,24; 92,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,37; 96,57</t>
+          <t>93,36; 96,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,03; 94,36</t>
+          <t>91,17; 94,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>89,11; 93,71</t>
+          <t>89,23; 93,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,46; 81,1</t>
+          <t>58,52; 80,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,27; 90,44</t>
+          <t>71,85; 90,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,82; 85,65</t>
+          <t>69,61; 86,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,44; 85,13</t>
+          <t>70,64; 85,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,09; 87,49</t>
+          <t>72,45; 87,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,65; 87,92</t>
+          <t>71,15; 88,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,36; 88,6</t>
+          <t>74,4; 88,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,42; 79,23</t>
+          <t>66,38; 78,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,63; 83,46</t>
+          <t>70,6; 83,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,05; 86,59</t>
+          <t>74,44; 87,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75,55; 86,16</t>
+          <t>75,35; 85,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,71; 80,07</t>
+          <t>70,39; 80,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>88,23; 92,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,0; 95,04</t>
+          <t>91,24; 95,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,06; 93,02</t>
+          <t>89,1; 93,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,23; 91,96</t>
+          <t>86,84; 92,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,25; 95,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,56; 97,06</t>
+          <t>94,54; 97,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,29; 95,28</t>
+          <t>92,34; 95,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,28; 92,6</t>
+          <t>88,19; 92,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,25; 93,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,6; 95,82</t>
+          <t>93,67; 95,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,43; 93,86</t>
+          <t>91,46; 93,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,45; 91,88</t>
+          <t>88,4; 91,87</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico de la seguridad social en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>320972</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>325928</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>252947</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>135583</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>517157</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>529897</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>397467</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>232204</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>838130</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>855825</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>650414</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>367787</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>313253; 326866</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>317726; 331266</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>246902; 256227</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>132384; 137082</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>508638; 522395</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>521865; 535898</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>388122; 403989</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>227642; 234908</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>827414; 846741</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>844728; 863464</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>639179; 658072</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>362306; 371212</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>222247</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>328538</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>418298</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>334069</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>371518</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>472732</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>552194</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>462531</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>593765</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>801270</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>970492</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>796600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>211208; 230950</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>313696; 337132</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>404915; 429496</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>318703; 344994</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>358909; 381303</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>462597; 478707</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>538303; 562392</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>447510; 477274</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>577111; 606720</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>786123; 813291</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>952660; 987022</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>778094; 815873</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50821</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61626</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>95005</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>104833</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94607</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>86486</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>114343</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>112014</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>145427</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>148111</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>209348</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>216846</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>42000; 57763</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>53755; 67464</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84024; 104353</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>94288; 114019</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>84144; 101841</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>76653; 95393</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>103132; 122452</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>101858; 120948</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>132674; 157382</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>135892; 158926</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>195394; 221820</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>201988; 229652</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1673</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1718</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1858</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>594040</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>716092</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>766250</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>574485</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>983282</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1089114</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1064004</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>806750</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1577321</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1805206</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1830254</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1381234</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>578628; 608216</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>700590; 730559</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>748135; 782950</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>556355; 589569</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>967160; 998057</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1073478; 1101905</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1047311; 1080758</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>787889; 826688</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1555133; 1600341</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1782806; 1825525</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1805211; 1851872</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1356140; 1409275</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>